--- a/UAL/output/test/Jarrod Mosier_2022.xlsx
+++ b/UAL/output/test/Jarrod Mosier_2022.xlsx
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Erin A. Bohula, David D. Berg, Mathew S. Lopes, Jean M. Connors, Ijlal Babar, Christopher F. Barnett, Sunit‐Preet Chaudhry, Amit Chopra, Wilson Ginete, Michael H. Ieong, Jason N. Katz, Edy Y. Kim, Julia Kuder, Emílio Mazza, Dalton McLean, Jarrod Mosier, Ari Moskowitz, Sabina A. Murphy, Michelle L. O’Donoghue, Jeong‐Gun Park, Rajnish Prasad, Christian T. Ruff, Mohamad N. Shahrour, Shashank S. Sinha, Stephen D. Wiviott, Sean van Diepen, Mark Zainea, Vivian M. Baird-Zars, Marc S. Sabatine, David A. Morrow, Kelly Im, Retu Saxena, Brandon M. Wiley, Cherie K. Benson, Roman Delamed, Nedaa Skeik, Amit Chopra, Marc A. Judson, Scott Beegle, Boris Shkolnik, Anupama Tiwari, Gregory F. Wu, Abhijit Raval, Emily Branch, Franz Rischard, Cameron Hypes, Billie Bixby, Christian Bime, Madhan Sundaram, Nancy K. Sweitzer, Alfredo Vazquez Sandoval, Heath D. White, Katherine M. Berg, Shahzad Shaefi, Michael W. Donnino, Brett Carroll, Michael H. Ieong, Kimberly Ackerbauer, Jaime Murphy, Ankeet S. Bhatt, Anne J. Blood, Siddharth Patel, Vu Dang Luu, Shraddha Narechania, Austin Lorganger, Robert Plambeck, Ali Nayfeh, Michael Sanley, Michel Del Cor, A. J. Hegg, Winston Nara, M Snyder, Faisal Khan, Imad Shawa, Joshua Larned, Elias Collado, Mohammed Al Faiyumi, Rajeev Mehta, Sudarshan Komanapalli, Vijayadershan Muppidi, Mehul J. Desai, Casey M. Flanagan, Leonard Genovese, Tariq Haddad, Christopher R. King, Amber Peterson, Tha Pyai Htun, Elizabeth Pionk, Nicolas J. Mouawad, C. V. Nithish Kumar, Kevin Nguyen, Majid M. Mughal, Ryan Malek, Akarsh Parekh, Christopher Provenzano, Melissa Marie Ianitelli, Nicole Prentice-Gaytan, Adam Bykowski, Don Tait, Stephen A. Schendel</t>
+          <t>Erin A. Bohula, David D. Berg, Mathew S. Lopes, Jean M. Connors, Ijlal Babar, Christopher F. Barnett, Sunit‐Preet Chaudhry, Amit Chopra, Wilson Ginete, Michael H. Ieong, Jason N. Katz, Edy Y. Kim, Julia Kuder, Emílio Mazza, Dalton McLean, Jarrod Mosier, Ari Moskowitz, Sabina A. Murphy, Michelle L. O’Donoghue, Jeong‐Gun Park, Rajnish Prasad, Christian T. Ruff, Mohamad N. Shahrour, Shashank S. Sinha, Stephen D. Wiviott, Sean van Diepen, Mark Zainea, Vivian M. Baird-Zars, Marc S. Sabatine, David A. Morrow, Kelly Im, Retu Saxena, Brandon M. Wiley, Cherie K. Benson, Roman Delamed, Nedaa Skeik, Amit Chopra, Marc A. Judson, Scott Beegle, Boris Shkolnik, Anupama Tiwari, Gregory F. Wu, Abhijit Raval, Emily Branch, Franz Rischard, Cameron Hypes, Billie Bixby, Christian Bime, Madhan Sundaram, Nancy K. Sweitzer, Alfredo Vazquez Sandoval, Heath D. White, Katherine M. Berg, Shahzad Shaefi, Michael W. Donnino, Brett Carroll, Michael H. Ieong, Kimberly Ackerbauer, Jaime Murphy, Ankeet S. Bhatt, Anne J. Blood, Siddharth Patel, Vu Dang Luu, Shraddha Narechania, Austin Lorganger, Robert Plambeck, Ali Nayfeh, Michael Sanley, Michel Del Cor, A. J. Hegg, Winston Nara, M Snyder, Faisal Khan, Imad Shawa, Joshua Larned, Elias Collado, Mohammed Al Faiyumi, Rajeev Mehta, Sudarshan Komanapalli, Vijayadershan Muppidi, Mehul J. Desai, Casey M. Flanagan, Leonard Genovese, Tariq Haddad, Christopher King, Amber Peterson, Tha Pyai Htun, Elizabeth Pionk, Nicolas J. Mouawad, C. V. Nithish Kumar, Kevin Nguyen, Majid M. Mughal, Ryan Malek, Akarsh Parekh, Christopher Provenzano, Melissa Marie Ianitelli, Nicole Prentice-Gaytan, Adam Bykowski, Don Tait, Stephen A. Schendel</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>British journal of anaesthesia</t>
+          <t>British Journal of Anaesthesia</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Erica C. Bjornstad, Gary Cutter, Pramod Guru, Shina Menon, Moham﻿ed El Kassas, Scott House, Nancy M. Tofil, Erin M. Wilfong, Yasir Tarabichi, Valerie Banner‐Goodspeed, Amy B. Christie, Surapaneni Krishna Mohan, Devang Sanghavi, Jarrod Mosier, Girish Vadgaonkar, Allan J. Walkey, Rahul Kashyap, Vishakha K. Kumar, Vikas Bansal, Karen Lutrick, Mayank Sharma, Marija Bogojevic, Neha Deo, Lynn Retford, Ognjen Gajic, Katja M. Gist, Jean-Baptiste Mesland, Pierre Henin, Hélène Petre, Isabelle Buelens, A Gérard, Philippe Clevenbergh, Rolando Claure‐Del Granado, José A. Mercado, Esdenka Vega-Terrazas, Maria F. Iturricha-Cáceres, Dragana Markotić, Ivana Bošnjak, Oscar Y. Gavidia, Felipe Pachon, Y. Olvera Sánchez, Danijel Knežević, Tanja Kovačević, Joško Markić, Tatjana Ćatipović Ardalić, Branka Polić, Ivo Ivić, Dominko Carev, Robert Glavinić, Moham﻿ed El Kassas, Mohamed Badr, Ahmed Tawheed, Ahmed Tawheed, Hend Yahia, D. Kantas, Vasileios Koulouras, Sierra-Hoffman, Fernando Valerio, Óscar Díaz Díaz, Jesús Coello, Guillermo I. Pérez‐Pérez, Ana Karen Vallecillo Lizardo, Gabina María Reyes Guillen, Helin Archaga Soto, Csaba Kopitkó, Ágnes Bencze, István Méhész, Zsófia Gerendai, Phaneendra Doddaga, Neethi Chandra, Girish Vadgaonkar, Rekha Ediga, Shilpa Basety, Shwetha Dammareddy, Phani Sreeharsha Kasumalla, Umamaheswara Raju, Janaki Manduva, Naresh Kolakani, Shreeja Sripathi, Sheetal Chaitanya, Anusha Cherian, Sreejith Parameswaran, Magesh Parthiban, Angelin Priya, Chetak Kadabasal Basavaraja, Madhav Prabhu, Vishal Jakati, Puneet Rijhwani, Ashish Jain, Aviral Gupta, Surapaneni Krishna Mohan, Ambika Tyagi, N. B. Mathur, Mradul Kumar Daga, Munisha Agarwal, Ishan Rohtagi, Sridhar Papani, Mahesh Kamuram, Kamlesh Kumar Agrawal, Vijay Baghel</t>
+          <t>Erica C. Bjornstad, Gary Cutter, Pramod Guru, Shina Menon, Moham﻿ed El Kassas, Scott House, Nancy M. Tofil, Erin M. Wilfong, Yasir Tarabichi, Valerie Banner‐Goodspeed, Amy B. Christie, Ram Mohan Jaiswal, Devang Sanghavi, Jarrod Mosier, Girish Vadgaonkar, Allan J. Walkey, Rahul Kashyap, Vishakha K. Kumar, Vikas Bansal, Karen Lutrick, Mayank Sharma, Marija Bogojevic, Neha Deo, Lynn Retford, Ognjen Gajic, Katja M. Gist, Jean-Baptiste Mesland, Pierre Henin, Hélène Petre, Isabelle Buelens, A Gérard, Philippe Clevenbergh, Rolando Claure‐Del Granado, José A. Mercado, Esdenka Vega-Terrazas, Maria F. Iturricha-Cáceres, Dragana Markotić, Ivana Bošnjak, Oscar Y. Gavidia, Felipe Pachon, Y. Olvera Sánchez, Danijel Knežević, Tanja Kovačević, Joško Markić, Tatjana Ćatipović Ardalić, Branka Polić, Ivo Ivić, Dominko Carev, Robert Glavinić, Moham﻿ed El Kassas, Mohamed Badr, Ahmed Tawheed, Ahmed Tawheed, Hend Yahia, D. Kantas, Vasileios Koulouras, Sierra-Hoffman, Fernando Valerio, Óscar Díaz Díaz, Jesús Coello, Guillermo I. Pérez‐Pérez, Ana Karen Vallecillo Lizardo, Gabina María Reyes Guillen, Helin Archaga Soto, Csaba Kopitkó, Ágnes Bencze, István Méhész, Zsófia Gerendai, Phaneendra Doddaga, Neethi Chandra, Girish Vadgaonkar, Rekha Ediga, Shilpa Basety, Shwetha Dammareddy, Phani Sreeharsha Kasumalla, Umamaheswara Raju, Janaki Manduva, Naresh Kolakani, Shreeja Sripathi, Sheetal Chaitanya, Anusha Cherian, Sreejith Parameswaran, Magesh Parthiban, Angelin Priya, Chetak Kadabasal Basavaraja, Madhav Prabhu, Vishal Jakati, Puneet Rijhwani, Ashish Jain, Aviral Gupta, Ram Mohan Jaiswal, Ambika Tyagi, N B Mathur, Mradul Kumar Daga, Munisha Agarwal, Ishan Rohtagi, Sridhar Papani, Mahesh Kamuram, Kamlesh Kumar Agrawal, Vijay Baghel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -795,7 +795,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sandeep Tripathi, Meghana Nadiger, Jeremy McGarvey, Aaron A. Harthan, Mónica Lombardo, Varsha Gharpure, Nicholas Perkins, Kathleen Chiotos, Imran A. Sayed, Erica C. Bjornstad, Utpal Bhalala, Umamaheswara Raju, Aaron S. Miller, Heda Dapul, Vicki Montgomery, Karen Lutrick, Grace M. Arteaga, Vikas Bansal, Neha Deo, Aysun Tekin, Ognjen Gajic, Vishakha K. Kumar, Rahul Kashyap, Allan J. Walkey, Tanja Kovačević, Joško Markić, Tatjana Capitovic Ardalic, Branka Polić, Ivo Ivić, Dominko Carev, Robert Glavinić, Girish Vadgaonkar, Rekha Ediga, Shilpa Basety, Shwetha Dammareddy, Phani Sreeharsha Kasumalla, Umamaheswara Raju, Janaki Manduva, Naresh Kolakani, Shreeja Sripathi, Sheetal Chaitanya, Sridhar Papani, Mahesh Kamuram, Surapaneni Krishna Mohan, Ekambaram Jyothisree, Mukur Petrolwala, Bharat Ladva, Yuki Itagaki, Akira Kodate, Reina Suzuki, Koyo Moriki, Fatimah Hassan-Hanga, Hadiza Galadanci, Abubakar Shehu Gezawa, Halima M. S. Kabara, Taiwo G. Amole, Halima Kabir, Dalha Gwarzo Haliru, Abdullahi S. Ibrahim, Muhammad Sohaib Asghar, Mashaal Syed, Syed Anosh Ali Naqvi, Farah Yasmin, Iftekhar Ahmed, Sidra Ishaque, Ali Faisal Saleem, Mohammed Almazyad, Mohammed I Alarifi, Jara Mia Macarambon, Ahmad Abdullah Bukhari, Hussain A. Albahrani, Kazi Nur Asfina, Kaltham M. Aldossary, Varsha Gharpure, Walid Malki, Paul R. Cooper, Brenna Kouzoukas, Nekaiya Jacobs, Tejashree Ganbote, Beryl Valentine, Pavan Sreerama, Vinod Havalad, Suzanne Barry, Christopher Woll, Gregory F. Wu, Erin Carrole, Kathryn Burke, Mustafa K. A. Mohammed, Katherine Irby, Ronald C. Sanders, Glenda Hefley, Amy B. Christie, Dennis W. Ashley, Rajani Adiga, Jarrod Mosier, Karen Lutrick, Beth Salvagio Campbell, Cathleen Wilson, Patrick Rivers, Joost Brinks</t>
+          <t>Sandeep Tripathi, Meghana Nadiger, Jeremy McGarvey, Aaron A. Harthan, Mónica Lombardo, Varsha Gharpure, Nicholas Perkins, Kathleen Chiotos, Imran A. Sayed, Erica C. Bjornstad, Utpal Bhalala, Umamaheswara Raju, Aaron S. Miller, Heda Dapul, Vicki Montgomery, Karen Lutrick, Grace M. Arteaga, Vikas Bansal, Neha Deo, Aysun Tekin, Ognjen Gajic, Vishakha K. Kumar, Rahul Kashyap, Allan J. Walkey, Tanja Kovačević, Joško Markić, Tatjana Capitovic Ardalic, Branka Polić, Ivo Ivić, Dominko Carev, Robert Glavinić, Girish Vadgaonkar, Rekha Ediga, Shilpa Basety, Shwetha Dammareddy, Phani Sreeharsha Kasumalla, Umamaheswara Raju, Janaki Manduva, Naresh Kolakani, Shreeja Sripathi, Sheetal Chaitanya, Sridhar Papani, Mahesh Kamuram, Ram Mohan Jaiswal, Ekambaram Jyothisree, Mukur Petrolwala, Bharat Ladva, Yuki Itagaki, Akira Kodate, Reina Suzuki, Koyo Moriki, Fatimah Hassan-Hanga, Hadiza Galadanci, Abubakar Shehu Gezawa, Halima M. S. Kabara, Taiwo G. Amole, Halima Kabir, Dalha Gwarzo Haliru, Abdullahi S. Ibrahim, Muhammad Sohaib Asghar, Mashaal Syed, Syed Anosh Ali Naqvi, Farah Yasmin, Iftekhar Ahmed, Sidra Ishaque, Ali Faisal Saleem, Mohammed Almazyad, Mohammed I Alarifi, Jara Mia Macarambon, Ahmad Abdullah Bukhari, Hussain A. Albahrani, Kazi Nur Asfina, Kaltham M. Aldossary, Varsha Gharpure, Walid Malki, Paul R. Cooper, Brenna Kouzoukas, Nekaiya Jacobs, Tejashree Ganbote, Beryl Valentine, Pavan Sreerama, Vinod Havalad, Suzanne Barry, Christopher Woll, Gregory F. Wu, Erin Carrole, Kathryn Burke, Mustafa K. A. Mohammed, Katherine Irby, Ronald C. Sanders, Glenda Hefley, Amy B. Christie, Dennis W. Ashley, Rajani Adiga, Jarrod Mosier, Karen Lutrick, Beth Salvagio Campbell, Cathleen Wilson, Patrick Rivers, Joost Brinks</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Respiratory care</t>
+          <t>Respiratory Care</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
